--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>200203062025031002</t>
+          <t>200209302025051001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>200011022024091002</t>
+          <t>200209302025051001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200108292024031001</t>
+          <t>200209062025051001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>200003072023081001</t>
+          <t>200112072025051001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>199906022023081001</t>
+          <t>200110082025051002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200008042023021002</t>
+          <t>200108302025051001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200001302023021001</t>
+          <t>200108202025051001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>199810152023021001</t>
+          <t>200108202025051001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>199808152023021001</t>
+          <t>200106252025051003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,19 +556,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>199908142022081002</t>
+          <t>200106012025051001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tombol Verifikasi tidak ditemukan</t>
+          <t>Nama tidak ditemukan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>199808112022031003</t>
+          <t>200012072025051003</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>199802242022031007</t>
+          <t>200011122025051002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>199802222022031004</t>
+          <t>200009232025051001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>199707062022031006</t>
+          <t>200007062025051001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>199605012022031004</t>
+          <t>200001292025051001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>199605012022031003</t>
+          <t>200001022025051003</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199508242022031005</t>
+          <t>199908272025051002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>199506232022031006</t>
+          <t>199907242025051003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>199504142022031003</t>
+          <t>199907142025051001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>199502242022031003</t>
+          <t>199903172025051002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199401242022031004</t>
+          <t>199903112025051001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>200011022024091002</t>
+          <t>199811242025051002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>200108292024031001</t>
+          <t>199808172025051002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>200003072023081001</t>
+          <t>199808052025051005</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>199906022023081001</t>
+          <t>199808052025051001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>200008042023021002</t>
+          <t>199804062025051002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200001302023021001</t>
+          <t>199803132025051001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>199810152023021001</t>
+          <t>199709232025051004</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>199808152023021001</t>
+          <t>199708292025051002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199908142022081002</t>
+          <t>199708122025051001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>199808112022031003</t>
+          <t>199708102025051002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>199802242022031007</t>
+          <t>199706262025051001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199802222022031004</t>
+          <t>199704272025051002</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>199707062022031006</t>
+          <t>199612182025051003</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>199605012022031004</t>
+          <t>199610302025051002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>199605012022031003</t>
+          <t>199610022025051002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199508242022031005</t>
+          <t>199608282025051001</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>199506232022031006</t>
+          <t>199608082025051002</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>199504142022031003</t>
+          <t>199608052025051002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>199502242022031003</t>
+          <t>199604292025051002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>199401242022031004</t>
+          <t>199604052025051005</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>199401082022031004</t>
+          <t>199604032025051001</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199312302022031005</t>
+          <t>199511032025051002</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>199308032022031001</t>
+          <t>199510262025051001</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>199303112022031004</t>
+          <t>199505292025051001</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>199303112022031004</t>
+          <t>199503202025051001</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>199303082022031003</t>
+          <t>199501292025051001</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>199303042022031003</t>
+          <t>199409192025051001</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>199212112022031003</t>
+          <t>199404242025051001</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>199211012022031002</t>
+          <t>199403312025051003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>199209172022031003</t>
+          <t>199310082025051002</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>199205032022031003</t>
+          <t>199307312025051001</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>199209172022031003</t>
+          <t>199303102025051001</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,10 +1084,154 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>199209172022031003</t>
+          <t>199301282025051002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>199210262025051001</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>199210262025051001</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>199112212025051001</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>199105212025051002</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>199105132025051002</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>199101282025051001</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>199006022025051002</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>200306132025041001</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>200211212024091001</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>200008042023081002</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>199905262022081002</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>198809122022031002</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Nama tidak ditemukan</t>
         </is>

--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>200209302025051001</t>
+          <t>200101022025061016</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>200209302025051001</t>
+          <t>199708172025051007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200209062025051001</t>
+          <t>199708122025051002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>200112072025051001</t>
+          <t>199707232025051001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200110082025051002</t>
+          <t>199707122025051007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200108302025051001</t>
+          <t>199705232025051004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200108202025051001</t>
+          <t>199705042025051005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>200108202025051001</t>
+          <t>199704192025051002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>200106252025051003</t>
+          <t>199703132025051004</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>200106012025051001</t>
+          <t>199703092025051003</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200012072025051003</t>
+          <t>199703092025051002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>200011122025051002</t>
+          <t>199702252025051004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200009232025051001</t>
+          <t>199702032025051005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>200007062025051001</t>
+          <t>199701212025051004</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>200001292025051001</t>
+          <t>199701192025051001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>200001022025051003</t>
+          <t>199701162025051003</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199908272025051002</t>
+          <t>199612222025051002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>199907242025051003</t>
+          <t>199612122025051005</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>199907142025051001</t>
+          <t>199612052025051002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>199903172025051002</t>
+          <t>199612022025051002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199903112025051001</t>
+          <t>199611152025051006</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>199811242025051002</t>
+          <t>199611062025051002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>199808172025051002</t>
+          <t>199610122025051001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>199808052025051005</t>
+          <t>199610102025051008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>199808052025051001</t>
+          <t>199608312025051003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199804062025051002</t>
+          <t>199608232025051001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>199803132025051001</t>
+          <t>199608222025051003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>199709232025051004</t>
+          <t>199608022025051002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>199708292025051002</t>
+          <t>199607282025051004</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199708122025051001</t>
+          <t>199607032025051005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>199708102025051002</t>
+          <t>199606212025051005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>199706262025051001</t>
+          <t>199605282025051003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199704272025051002</t>
+          <t>199605222025051002</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>199612182025051003</t>
+          <t>199605192025051001</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>199610302025051002</t>
+          <t>199605152025051003</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>199610022025051002</t>
+          <t>199603262025051005</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199608282025051001</t>
+          <t>199603012025051006</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>199608082025051002</t>
+          <t>199602202025051002</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>199608052025051002</t>
+          <t>199602142025051005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>199604292025051002</t>
+          <t>199601152025051003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>199604052025051005</t>
+          <t>199512302025051002</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>199604032025051001</t>
+          <t>199512262025051002</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199511032025051002</t>
+          <t>199512102025051001</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>199510262025051001</t>
+          <t>199512072025051003</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>199505292025051001</t>
+          <t>199512052025051004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>199503202025051001</t>
+          <t>199510192025051002</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>199501292025051001</t>
+          <t>199510172025051002</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>199409192025051001</t>
+          <t>199510052025051007</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>199404242025051001</t>
+          <t>199510022025051002</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>199403312025051003</t>
+          <t>199508092025051003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>199310082025051002</t>
+          <t>199507082025051002</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>199307312025051001</t>
+          <t>199506212025051003</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>199303102025051001</t>
+          <t>199503182025051001</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>199301282025051002</t>
+          <t>199502182025051002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>199210262025051001</t>
+          <t>199501062025051003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>199210262025051001</t>
+          <t>199411252025051002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>199112212025051001</t>
+          <t>199411152025051002</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>199105212025051002</t>
+          <t>199411082025051003</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>199105132025051002</t>
+          <t>199410122025051003</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>199101282025051001</t>
+          <t>199409212025051001</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>199006022025051002</t>
+          <t>199409052025051002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>200306132025041001</t>
+          <t>199408142025051002</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>200211212024091001</t>
+          <t>199407222025051005</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>200008042023081002</t>
+          <t>199406262025051001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>199905262022081002</t>
+          <t>199405232025051003</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,10 +1228,850 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>198809122022031002</t>
+          <t>199404302025051003</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>199402192025051002</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>199401292025051002</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>199401262025051003</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>199401222025051004</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>199401162025051003</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>199401112025051003</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>199401012025051002</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>199311272025051003</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>199310292025051001</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>199310252025051001</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>199309302025051002</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>199309232025051001</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>199308282025051001</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>199307162025051002</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>199307162025051001</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>199306142025051002</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>199305292025051004</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>199305012025051003</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>199304142025051003</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>199303192025051002</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>199302172025051002</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>199302042025051002</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>199301132025051003</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>199301042025051005</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>199212252025051003</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>199212182025051001</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>199210082025051001</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>199210062025051004</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>199209062025051001</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>199209042025051003</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>199209022025051005</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>199208162025051003</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>199204232025051002</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>199203312025051002</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>199203062025051003</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>199202192025051001</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>199201222025051002</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>199201032025051003</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>199110142025051002</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>199109152025051001</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>199108222025051002</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>199108062025051001</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>199107302025051003</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>199106262025051001</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>199106152025051003</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>199104162025051001</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>199103032025051001</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>199012032025051001</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>199011182025051001</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>199011112025051001</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>199011082025051001</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>199011022025051001</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>199009212025051003</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>199005022025051001</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>199003282025051001</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>199001162025051002</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>199001082025051003</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>199001012025051001</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>198912302025051001</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>198912282025051001</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>198911102025051001</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>198910282025051002</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>200206172024091003</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>200109282024091002</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>200105212024091001</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>200104172024091001</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>200011122024091001</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>200201242023081001</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>200107232023081001</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>200104182023081002</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Nama tidak ditemukan</t>
         </is>

--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,42 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>200208082025052007</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>197408032006042008</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>197707092005042001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>197408032006042008</t>
+          <t>200207162025052002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,10 +484,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>197707092005042001</t>
+          <t>200205302025052004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>200205072025052002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nama tidak ditemukan</t>
         </is>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>200307052025052001</t>
+          <t>200201012025052001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>200208082025052007</t>
+          <t>200111292025052002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200207162025052002</t>
+          <t>200110062025052002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>200205302025052004</t>
+          <t>200107082025052001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,10 +496,526 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200205072025052002</t>
+          <t>200106082025052003</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>200104042025052005</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>200103172025052001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>200107082025052001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>200106082025052003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>200104042025052005</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>200103172025052001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>200012102025052004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>200006202025052002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>200006142025052002</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>200005222025052003</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>200003042025052001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>200002262025052001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>200001042025052002</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>200001042025052002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>199912082025052003</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>199910202025052001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>199908132025052002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>199907112025052001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>199901222025052002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>199901222025052002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>199811202025052001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>199804212025052001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>199804212025052001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>199803272025052001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>199710062025052001</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>199708082025052001</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>199706092025052001</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>199703292025052001</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>199702222025052002</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>199609212025052001</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>199603232025052001</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>199603012025052001</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>199508082025052001</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>199411232025052001</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>199203312025052001</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>200203072024092001</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>199908022023022001</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>200004162022082002</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>199812222022032007</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>199810132022032005</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>199805112022032007</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>199709292022032005</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nama tidak ditemukan</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>199708172022032009</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Nama tidak ditemukan</t>
         </is>
